--- a/biology/Microbiologie/Nocardia_aobensis/Nocardia_aobensis.xlsx
+++ b/biology/Microbiologie/Nocardia_aobensis/Nocardia_aobensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nocardia aobensis est une espèce de bactéries de la famille des Nocardiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nocardia aobensis Kageyama et al. 2005[1].
-Étymologie
-L'étymologie du nom spécifique de N. aobensis est basée sur le lieu où sa souche type a été isolée :a.ob.en’sis. N.L. masc./fem. adj. aobensis, ce qui signifie qu'elle provient d'Aoba-cho, Chiba, au Japon[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nocardia aobensis Kageyama et al. 2005.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nocardia_aobensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia_aobensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom spécifique de N. aobensis est basée sur le lieu où sa souche type a été isolée :a.ob.en’sis. N.L. masc./fem. adj. aobensis, ce qui signifie qu'elle provient d'Aoba-cho, Chiba, au Japon.
 </t>
         </is>
       </c>
